--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_捷豹.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_捷豹.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="23440" windowHeight="13360" tabRatio="710" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="23440" windowHeight="13360" tabRatio="710" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="157">
   <si>
     <t>No</t>
   </si>
@@ -609,12 +609,184 @@
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>JB组</t>
+  </si>
+  <si>
+    <t>CA合同认证补偿任务</t>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+  </si>
+  <si>
+    <t>王辉</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CompensateCATask</t>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>CompensateCATask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CompensateCATask"}</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>半小时执行一次</t>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>线上快照-历史数据处理</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.process.ProcessContractSnapshotNewTask</t>
+  </si>
+  <si>
+    <t>ProcessContractSnapshotNewTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.process.ProcessContractSnapshotNewTask"}</t>
+  </si>
+  <si>
+    <t>一次性任务</t>
+  </si>
+  <si>
+    <t>上线执行一次</t>
+  </si>
+  <si>
+    <t>修复快照</t>
+  </si>
+  <si>
+    <t>5.3.5</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ca.mid=e6878a05150240c2a21b3a1d2d76685d</t>
+  </si>
+  <si>
+    <r>
+      <t>sysconfig.ca.primaryKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MIICdgIBADANBgkqhkiG9w0BAQEFAASCAmAwggJcAgEAAoGBAM531utQyY1Rz4aQ8ExivxS//lcwAth6mDzbU+9SoKS9NHxHsfdjlGWz4ZYp4BJxFXqS+hftghLSghj+XaWQjBKFFNzF2b0h2RnNpF1lKQq+YvkamGjWS/qAevfacKO8Itava6g2O63H5jIJgv99jPkQXnurmBWDr29Y5Chd/8aVAgMBAAECgYEArOj2B4pX0U9TcgnOBNqp1hHYSmI979fzyPuRtprHSE/gNbjBVUKDFA1qfhzBuBAWgdm3MvTIe0TqiU31VWPRuWsPXGbP37EWBYgdRrySxfn60P05a8KB6bVX9wYLL7hu5raH4cQUmYlQmbDyHNG5mTW9r/nHm7Vc8gsNKUzJIYECQQD0GAcN6GWv1+KncNj0ZpkxSobCdtXdSW3cSrWR+jY9RVFO8d1NqKUfgUI+9hA0z+DvnRNOKGGmoTlZLKfvUDBhAkEA2In70gPPUpjBblhHAfiDosMaqPFfko0Ec7WWDvgwiPOH+Q0u3CM7fV2RKzDnj5GYZjPk6d73lthvMUm6/17StQJAQIrN6raFlM5/xwiGxXEPlsH/ChKEEEQnQXWbtyKzDtZyXm6DttId/0udaaqEtII3FwSwoxz4XSgKUvME4LmSYQJAVH+T2uJNtueRI+Qi4Wv+wjbsYly+dMu+nwCPLAxBtE+EEfXJAXJmNoearIYK9oVUOR2rCHBPoXeX/F3PMPPpuQJATJQqWTZ6K3EIRH766hZC64KS0odxLvSvQIbPl1ronj7boxfV2sPl2en8mrh2xrvW4gIeuokqWz4Ur/wdz2GKnw==
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sysconfig.ca.host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.bestsign.cn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sysconfig.ca.primaryKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF006411"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MIICdgIBADANBgkqhkiG9w0BAQEFAASCAmAwggJcAgEAAoGBAM531utQyY1Rz4aQ8ExivxS//lcwAth6mDzbU+9SoKS9NHxHsfdjlGWz4ZYp4BJxFXqS+hftghLSghj+XaWQjBKFFNzF2b0h2RnNpF1lKQq+YvkamGjWS/qAevfacKO8Itava6g2O63H5jIJgv99jPkQXnurmBWDr29Y5Chd/8aVAgMBAAECgYEArOj2B4pX0U9TcgnOBNqp1hHYSmI979fzyPuRtprHSE/gNbjBVUKDFA1qfhzBuBAWgdm3MvTIe0TqiU31VWPRuWsPXGbP37EWBYgdRrySxfn60P05a8KB6bVX9wYLL7hu5raH4cQUmYlQmbDyHNG5mTW9r/nHm7Vc8gsNKUzJIYECQQD0GAcN6GWv1+KncNj0ZpkxSobCdtXdSW3cSrWR+jY9RVFO8d1NqKUfgUI+9hA0z+DvnRNOKGGmoTlZLKfvUDBhAkEA2In70gPPUpjBblhHAfiDosMaqPFfko0Ec7WWDvgwiPOH+Q0u3CM7fV2RKzDnj5GYZjPk6d73lthvMUm6/17StQJAQIrN6raFlM5/xwiGxXEPlsH/ChKEEEQnQXWbtyKzDtZyXm6DttId/0udaaqEtII3FwSwoxz4XSgKUvME4LmSYQJAVH+T2uJNtueRI+Qi4Wv+wjbsYly+dMu+nwCPLAxBtE+EEfXJAXJmNoearIYK9oVUOR2rCHBPoXeX/F3PMPPpuQJATJQqWTZ6K3EIRH766hZC64KS0odxLvSvQIbPl1ronj7boxfV2sPl2en8mrh2xrvW4gIeuokqWz4Ur/wdz2GKnw==</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sysconfig.ca.host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF006411"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.bestsign.cn</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -797,6 +969,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -828,8 +1001,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006411"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +1082,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1055,7 +1261,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,8 +1329,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,6 +1565,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,41 +1625,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="11"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1443,6 +1709,7 @@
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -6196,7 +6463,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6276,44 +6543,110 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
+      <c r="A2" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="98" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="A3" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="114"/>
+      <c r="L3" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="107" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
@@ -6338,6 +6671,7 @@
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6362,19 +6696,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -6412,8 +6746,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6425,8 +6759,8 @@
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -6438,8 +6772,8 @@
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -6451,8 +6785,8 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6464,8 +6798,8 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6477,8 +6811,8 @@
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6490,8 +6824,8 @@
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6503,8 +6837,8 @@
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -6545,7 +6879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:K14"/>
     </sheetView>
   </sheetViews>
@@ -6565,36 +6899,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6638,148 +6972,148 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="86"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="86">
+      <c r="A6" s="77">
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A7" s="86">
+      <c r="A7" s="77">
         <v>4</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86" t="s">
+      <c r="I7" s="77"/>
+      <c r="J7" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="77" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L8" s="9"/>
@@ -6787,34 +7121,34 @@
     </row>
     <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L9" s="9"/>
@@ -6822,34 +7156,34 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L10" s="9"/>
@@ -6857,34 +7191,34 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L11" s="9"/>
@@ -6892,34 +7226,34 @@
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L12" s="9"/>
@@ -6927,34 +7261,34 @@
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L13" s="9"/>
@@ -6962,34 +7296,34 @@
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L14" s="9"/>
@@ -7054,7 +7388,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K10"/>
+      <selection activeCell="B7" sqref="B7:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7073,36 +7407,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7146,150 +7480,150 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+      <c r="A4" s="77">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="77" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
+      <c r="A5" s="77">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="86"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A6" s="86">
+      <c r="A6" s="77">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="77" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L7" s="10"/>
@@ -7297,34 +7631,34 @@
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L8" s="9"/>
@@ -7332,34 +7666,34 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L9" s="9"/>
@@ -7367,34 +7701,34 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="77" t="s">
         <v>121</v>
       </c>
       <c r="L10" s="9"/>
@@ -7402,61 +7736,121 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="255" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
@@ -7496,16 +7890,16 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7:I10 I12:I14">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6 I11">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7519,7 +7913,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K10"/>
+      <selection activeCell="B7" sqref="B7:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7538,36 +7932,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7611,150 +8005,150 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+      <c r="A4" s="77">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="77" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="86">
+      <c r="A5" s="77">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="86"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A6" s="86">
+      <c r="A6" s="77">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="77" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="84" t="s">
         <v>121</v>
       </c>
       <c r="L7" s="10"/>
@@ -7765,31 +8159,31 @@
       <c r="B8" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="87" t="s">
         <v>121</v>
       </c>
       <c r="L8" s="9"/>
@@ -7800,31 +8194,31 @@
       <c r="B9" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="87" t="s">
         <v>121</v>
       </c>
       <c r="L9" s="9"/>
@@ -7835,31 +8229,31 @@
       <c r="B10" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="87" t="s">
         <v>121</v>
       </c>
       <c r="L10" s="9"/>
@@ -7867,31 +8261,121 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
+      <c r="B12" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
+      <c r="B13" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
@@ -7931,16 +8415,16 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10 F14:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F4:F6">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7953,8 +8437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7975,36 +8459,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8048,150 +8532,150 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="86">
+      <c r="A6" s="77">
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A7" s="86">
+      <c r="A7" s="77">
         <v>4</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86" t="s">
+      <c r="I7" s="77"/>
+      <c r="J7" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="77" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="84" t="s">
         <v>121</v>
       </c>
       <c r="L8" s="9"/>
@@ -8199,34 +8683,34 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="87" t="s">
         <v>121</v>
       </c>
       <c r="L9" s="9"/>
@@ -8234,34 +8718,34 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H10" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="87" t="s">
         <v>121</v>
       </c>
       <c r="L10" s="9"/>
@@ -8269,34 +8753,34 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="96" t="s">
+      <c r="H11" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="96" t="s">
+      <c r="I11" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="87" t="s">
         <v>121</v>
       </c>
       <c r="L11" s="9"/>
@@ -8304,61 +8788,121 @@
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="87" t="s">
+        <v>121</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
@@ -8383,10 +8927,10 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F6:F7 F12:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F6:F7 F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I6:I7">

--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_捷豹.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_捷豹.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="23440" windowHeight="13360" tabRatio="710" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="705" yWindow="465" windowWidth="23445" windowHeight="13365" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -334,10 +329,6 @@
     <rPh sb="9" eb="10">
       <t>he't</t>
     </rPh>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner、partnerpc、papp</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -780,6 +771,29 @@
       </rPr>
       <t>https://www.bestsign.cn</t>
     </r>
+  </si>
+  <si>
+    <t>线上退款，审批同意后，对应租约单仍然是退款审批状态，导致无法退房</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>partner、partnerpc、papp</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>李德佳</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1333,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1598,6 +1612,63 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1625,62 +1696,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1696,7 +1713,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="10" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1728,74 +1745,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2138,38 +2087,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="43" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="43" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="44" customWidth="1"/>
     <col min="5" max="5" width="15" style="43" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="43" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="43" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="43" customWidth="1"/>
     <col min="15" max="15" width="13" style="43" customWidth="1"/>
     <col min="16" max="16" width="10" style="44" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="44" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="44" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="44" customWidth="1"/>
     <col min="19" max="20" width="12" style="45" customWidth="1"/>
     <col min="21" max="21" width="17" style="45" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="45" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="44" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="44" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="41" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="41" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2222,7 @@
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M2" s="54" t="s">
         <v>79</v>
@@ -2321,7 +2270,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>69</v>
@@ -2337,7 +2286,7 @@
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="54" t="s">
         <v>79</v>
@@ -2346,7 +2295,7 @@
         <v>80</v>
       </c>
       <c r="O3" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="58" t="s">
         <v>70</v>
@@ -2366,7 +2315,7 @@
       <c r="W3" s="68"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -2377,13 +2326,13 @@
         <v>75</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>69</v>
@@ -2399,7 +2348,7 @@
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="54" t="s">
         <v>79</v>
@@ -2408,7 +2357,7 @@
         <v>74</v>
       </c>
       <c r="O4" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="58" t="s">
         <v>70</v>
@@ -2420,7 +2369,7 @@
         <v>72</v>
       </c>
       <c r="S4" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T4" s="52"/>
       <c r="U4" s="52"/>
@@ -2428,33 +2377,69 @@
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+    <row r="5" spans="1:24" s="42" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="55">
+        <v>42814</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="55">
+        <v>42814</v>
+      </c>
       <c r="K5" s="54"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="58"/>
+      <c r="L5" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>42815</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
+      <c r="T5" s="52">
+        <v>9740</v>
+      </c>
       <c r="U5" s="52"/>
       <c r="V5" s="63"/>
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
@@ -2480,7 +2465,7 @@
       <c r="W6" s="70"/>
       <c r="X6" s="69"/>
     </row>
-    <row r="7" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -2506,7 +2491,7 @@
       <c r="W7" s="70"/>
       <c r="X7" s="69"/>
     </row>
-    <row r="8" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
@@ -2532,7 +2517,7 @@
       <c r="W8" s="70"/>
       <c r="X8" s="69"/>
     </row>
-    <row r="9" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -2558,7 +2543,7 @@
       <c r="W9" s="70"/>
       <c r="X9" s="69"/>
     </row>
-    <row r="10" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -2584,7 +2569,7 @@
       <c r="W10" s="70"/>
       <c r="X10" s="69"/>
     </row>
-    <row r="11" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -2610,7 +2595,7 @@
       <c r="W11" s="70"/>
       <c r="X11" s="69"/>
     </row>
-    <row r="12" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -2636,7 +2621,7 @@
       <c r="W12" s="70"/>
       <c r="X12" s="69"/>
     </row>
-    <row r="13" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -2662,7 +2647,7 @@
       <c r="W13" s="70"/>
       <c r="X13" s="69"/>
     </row>
-    <row r="14" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -2688,7 +2673,7 @@
       <c r="W14" s="70"/>
       <c r="X14" s="69"/>
     </row>
-    <row r="15" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -2714,7 +2699,7 @@
       <c r="W15" s="70"/>
       <c r="X15" s="69"/>
     </row>
-    <row r="16" spans="1:24" s="42" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -2740,7 +2725,7 @@
       <c r="W16" s="71"/>
       <c r="X16" s="69"/>
     </row>
-    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -2765,7 +2750,7 @@
       <c r="V17" s="52"/>
       <c r="W17" s="53"/>
     </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -2790,7 +2775,7 @@
       <c r="V18" s="52"/>
       <c r="W18" s="53"/>
     </row>
-    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -2815,7 +2800,7 @@
       <c r="V19" s="52"/>
       <c r="W19" s="53"/>
     </row>
-    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -2840,7 +2825,7 @@
       <c r="V20" s="52"/>
       <c r="W20" s="70"/>
     </row>
-    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -2865,7 +2850,7 @@
       <c r="V21" s="52"/>
       <c r="W21" s="70"/>
     </row>
-    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -2890,7 +2875,7 @@
       <c r="V22" s="52"/>
       <c r="W22" s="70"/>
     </row>
-    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -2915,7 +2900,7 @@
       <c r="V23" s="66"/>
       <c r="W23" s="72"/>
     </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
@@ -2940,7 +2925,7 @@
       <c r="V24" s="67"/>
       <c r="W24" s="72"/>
     </row>
-    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -2965,7 +2950,7 @@
       <c r="V25" s="73"/>
       <c r="W25" s="72"/>
     </row>
-    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
@@ -2990,7 +2975,7 @@
       <c r="V26" s="67"/>
       <c r="W26" s="72"/>
     </row>
-    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
@@ -3015,7 +3000,7 @@
       <c r="V27" s="67"/>
       <c r="W27" s="72"/>
     </row>
-    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -3040,7 +3025,7 @@
       <c r="V28" s="65"/>
       <c r="W28" s="58"/>
     </row>
-    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -3065,7 +3050,7 @@
       <c r="V29" s="52"/>
       <c r="W29" s="70"/>
     </row>
-    <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -3090,7 +3075,7 @@
       <c r="V30" s="52"/>
       <c r="W30" s="70"/>
     </row>
-    <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -3115,7 +3100,7 @@
       <c r="V31" s="52"/>
       <c r="W31" s="70"/>
     </row>
-    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -3140,7 +3125,7 @@
       <c r="V32" s="67"/>
       <c r="W32" s="72"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -3165,7 +3150,7 @@
       <c r="V33" s="52"/>
       <c r="W33" s="68"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3190,7 +3175,7 @@
       <c r="V34" s="52"/>
       <c r="W34" s="70"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -3215,7 +3200,7 @@
       <c r="V35" s="52"/>
       <c r="W35" s="70"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -3240,7 +3225,7 @@
       <c r="V36" s="52"/>
       <c r="W36" s="70"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -3265,7 +3250,7 @@
       <c r="V37" s="52"/>
       <c r="W37" s="70"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -3290,7 +3275,7 @@
       <c r="V38" s="52"/>
       <c r="W38" s="70"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -3315,7 +3300,7 @@
       <c r="V39" s="52"/>
       <c r="W39" s="70"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -3340,7 +3325,7 @@
       <c r="V40" s="52"/>
       <c r="W40" s="70"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -3365,7 +3350,7 @@
       <c r="V41" s="52"/>
       <c r="W41" s="70"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -3390,7 +3375,7 @@
       <c r="V42" s="52"/>
       <c r="W42" s="70"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -3415,7 +3400,7 @@
       <c r="V43" s="52"/>
       <c r="W43" s="70"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -3440,7 +3425,7 @@
       <c r="V44" s="65"/>
       <c r="W44" s="70"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -3465,7 +3450,7 @@
       <c r="V45" s="65"/>
       <c r="W45" s="70"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="47"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -3490,7 +3475,7 @@
       <c r="V46" s="52"/>
       <c r="W46" s="53"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -3515,7 +3500,7 @@
       <c r="V47" s="52"/>
       <c r="W47" s="53"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -3540,7 +3525,7 @@
       <c r="V48" s="52"/>
       <c r="W48" s="53"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -3565,7 +3550,7 @@
       <c r="V49" s="52"/>
       <c r="W49" s="53"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -3590,7 +3575,7 @@
       <c r="V50" s="52"/>
       <c r="W50" s="53"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -3615,7 +3600,7 @@
       <c r="V51" s="52"/>
       <c r="W51" s="53"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -3640,7 +3625,7 @@
       <c r="V52" s="52"/>
       <c r="W52" s="53"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="52"/>
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
@@ -3665,7 +3650,7 @@
       <c r="V53" s="52"/>
       <c r="W53" s="53"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="52"/>
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
@@ -3690,7 +3675,7 @@
       <c r="V54" s="52"/>
       <c r="W54" s="53"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="52"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
@@ -3715,7 +3700,7 @@
       <c r="V55" s="52"/>
       <c r="W55" s="53"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="52"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
@@ -3740,7 +3725,7 @@
       <c r="V56" s="52"/>
       <c r="W56" s="53"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="52"/>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
@@ -3765,7 +3750,7 @@
       <c r="V57" s="52"/>
       <c r="W57" s="53"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="52"/>
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
@@ -3790,7 +3775,7 @@
       <c r="V58" s="52"/>
       <c r="W58" s="53"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="52"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
@@ -3815,7 +3800,7 @@
       <c r="V59" s="52"/>
       <c r="W59" s="53"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="52"/>
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
@@ -3840,7 +3825,7 @@
       <c r="V60" s="52"/>
       <c r="W60" s="53"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="52"/>
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
@@ -3865,7 +3850,7 @@
       <c r="V61" s="52"/>
       <c r="W61" s="53"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="52"/>
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
@@ -3890,7 +3875,7 @@
       <c r="V62" s="52"/>
       <c r="W62" s="53"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="52"/>
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
@@ -3915,7 +3900,7 @@
       <c r="V63" s="52"/>
       <c r="W63" s="53"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="52"/>
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
@@ -3940,7 +3925,7 @@
       <c r="V64" s="52"/>
       <c r="W64" s="53"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="52"/>
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
@@ -3965,7 +3950,7 @@
       <c r="V65" s="52"/>
       <c r="W65" s="53"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="52"/>
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
@@ -3990,7 +3975,7 @@
       <c r="V66" s="52"/>
       <c r="W66" s="53"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="52"/>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
@@ -4015,7 +4000,7 @@
       <c r="V67" s="52"/>
       <c r="W67" s="53"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="52"/>
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
@@ -4040,7 +4025,7 @@
       <c r="V68" s="52"/>
       <c r="W68" s="53"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="52"/>
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
@@ -4065,7 +4050,7 @@
       <c r="V69" s="52"/>
       <c r="W69" s="53"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="52"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
@@ -4090,7 +4075,7 @@
       <c r="V70" s="52"/>
       <c r="W70" s="53"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="52"/>
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
@@ -4115,7 +4100,7 @@
       <c r="V71" s="52"/>
       <c r="W71" s="53"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="52"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
@@ -4140,7 +4125,7 @@
       <c r="V72" s="52"/>
       <c r="W72" s="53"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="52"/>
       <c r="B73" s="52"/>
       <c r="C73" s="52"/>
@@ -4165,7 +4150,7 @@
       <c r="V73" s="52"/>
       <c r="W73" s="53"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="52"/>
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
@@ -4190,7 +4175,7 @@
       <c r="V74" s="52"/>
       <c r="W74" s="53"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="52"/>
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
@@ -4215,7 +4200,7 @@
       <c r="V75" s="52"/>
       <c r="W75" s="53"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="52"/>
       <c r="B76" s="52"/>
       <c r="C76" s="52"/>
@@ -4240,7 +4225,7 @@
       <c r="V76" s="52"/>
       <c r="W76" s="53"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="52"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
@@ -4265,7 +4250,7 @@
       <c r="V77" s="52"/>
       <c r="W77" s="53"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="52"/>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
@@ -6466,24 +6451,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -6543,109 +6528,109 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99" t="s">
+      <c r="E2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="F2" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="G2" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="H2" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="I2" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="K2" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" s="98" t="s">
+      <c r="Q2" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="R2" s="89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="R2" s="98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="107" t="s">
+      <c r="J3" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="112" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="113" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="107" t="s">
+      <c r="Q3" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" s="98" t="s">
         <v>149</v>
-      </c>
-      <c r="P3" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="107" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -6683,34 +6668,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -6745,9 +6730,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6758,9 +6743,9 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -6771,9 +6756,9 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -6784,9 +6769,9 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -6797,9 +6782,9 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6810,9 +6795,9 @@
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -6823,9 +6808,9 @@
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -6836,9 +6821,9 @@
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -6849,7 +6834,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -6879,58 +6864,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="34.375" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6971,365 +6956,365 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="77">
         <v>1</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="H4" s="77" t="s">
         <v>98</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>99</v>
       </c>
       <c r="I4" s="77"/>
       <c r="J4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>101</v>
-      </c>
       <c r="M4" s="77"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="77">
         <v>3</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="77" t="s">
-        <v>103</v>
-      </c>
       <c r="F6" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="77" t="s">
         <v>106</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>107</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="77"/>
     </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A7" s="77">
         <v>4</v>
       </c>
       <c r="B7" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D7" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="F7" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>111</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>112</v>
       </c>
       <c r="I7" s="77"/>
       <c r="J7" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="D8" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="E8" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="77" t="s">
+      <c r="H8" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="I8" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="J8" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K8" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="342" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="D9" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E9" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="J9" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K9" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="D10" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E10" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G10" s="82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="J10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K10" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="D11" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E11" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G11" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="77" t="s">
-        <v>125</v>
-      </c>
       <c r="I11" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K11" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="D12" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E12" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G12" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K12" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="D13" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E13" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G13" s="77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K13" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="D14" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="77" t="s">
-        <v>121</v>
-      </c>
       <c r="K14" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7344,7 +7329,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7391,54 +7376,54 @@
       <selection activeCell="B7" sqref="B7:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7479,262 +7464,262 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="77">
         <v>2</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="79" t="s">
-        <v>105</v>
-      </c>
       <c r="H4" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="77"/>
       <c r="J4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>101</v>
-      </c>
       <c r="M4" s="77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="77">
         <v>3</v>
       </c>
       <c r="B5" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>103</v>
-      </c>
       <c r="F5" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="77" t="s">
         <v>106</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>107</v>
       </c>
       <c r="I5" s="77"/>
       <c r="J5" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M5" s="77"/>
     </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A6" s="77">
         <v>4</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="F6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>111</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>112</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="D7" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E7" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G7" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="77" t="s">
-        <v>125</v>
-      </c>
       <c r="I7" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="D8" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E8" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="D9" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E9" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="D10" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E10" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G10" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>129</v>
-      </c>
       <c r="J10" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
@@ -7749,112 +7734,112 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="D12" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E12" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G12" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="255" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="D13" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E13" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G13" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="D14" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="77" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7869,7 +7854,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7916,54 +7901,54 @@
       <selection activeCell="B7" sqref="B7:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8004,262 +7989,262 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="77">
         <v>2</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="79" t="s">
-        <v>105</v>
-      </c>
       <c r="H4" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="77"/>
       <c r="J4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>101</v>
-      </c>
       <c r="M4" s="77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="77">
         <v>3</v>
       </c>
       <c r="B5" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>103</v>
-      </c>
       <c r="F5" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="77" t="s">
         <v>106</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>107</v>
       </c>
       <c r="I5" s="77"/>
       <c r="J5" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M5" s="77"/>
     </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A6" s="77">
         <v>4</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="F6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>111</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>112</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E7" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="84" t="s">
-        <v>97</v>
-      </c>
       <c r="G7" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="83" t="s">
-        <v>125</v>
-      </c>
       <c r="I7" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="D8" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E8" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="D9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E9" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="D10" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E10" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G10" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="87" t="s">
-        <v>129</v>
-      </c>
       <c r="J10" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -8274,112 +8259,112 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="D12" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E12" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G12" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="D13" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E13" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G13" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="D14" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H14" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8394,7 +8379,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8441,56 +8426,56 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8531,262 +8516,262 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="77">
         <v>1</v>
       </c>
       <c r="B4" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="G4" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="H4" s="77" t="s">
         <v>98</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>99</v>
       </c>
       <c r="I4" s="77"/>
       <c r="J4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>101</v>
-      </c>
       <c r="M4" s="77" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="77">
         <v>3</v>
       </c>
       <c r="B6" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="77" t="s">
-        <v>103</v>
-      </c>
       <c r="F6" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="77" t="s">
         <v>106</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>107</v>
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="77"/>
     </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A7" s="77">
         <v>4</v>
       </c>
       <c r="B7" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>94</v>
-      </c>
       <c r="D7" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="F7" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>111</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>112</v>
       </c>
       <c r="I7" s="77"/>
       <c r="J7" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E8" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="84" t="s">
-        <v>97</v>
-      </c>
       <c r="G8" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="83" t="s">
-        <v>125</v>
-      </c>
       <c r="I8" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="D9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E9" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="D10" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E10" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G10" s="87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="D11" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E11" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G11" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>129</v>
-      </c>
       <c r="J11" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
@@ -8801,112 +8786,112 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="D13" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E13" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G13" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="D14" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="D15" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>117</v>
-      </c>
       <c r="E15" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="87" t="s">
-        <v>97</v>
-      </c>
       <c r="G15" s="82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" s="87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8949,15 +8934,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
